--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2518811.301958859</v>
+        <v>2516313.566608408</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>255.8358248333851</v>
+        <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>138.2777772683593</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>44.34001494201961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
-        <v>146.6825794839475</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73.08658644736065</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>159.755388567623</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>361.693425692988</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>236.0352294476423</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>65.76926307766713</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>201.6264516416224</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>90.8428096561655</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>197.3742434252462</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.35124001368213</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>198.5622246230542</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699755</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>196.1253943548664</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>174.8605623338597</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>141.2342243404105</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826188608</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>198.9107847550991</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>112.684901660993</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1870.066545651916</v>
+        <v>1164.16577872985</v>
       </c>
       <c r="C2" t="n">
-        <v>1501.104028711505</v>
+        <v>795.2032617894384</v>
       </c>
       <c r="D2" t="n">
-        <v>1142.838330104754</v>
+        <v>795.2032617894384</v>
       </c>
       <c r="E2" t="n">
-        <v>757.05007750651</v>
+        <v>795.2032617894384</v>
       </c>
       <c r="F2" t="n">
-        <v>750.1045767573065</v>
+        <v>788.257761040235</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>371.148100525673</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>165.3835665605759</v>
       </c>
       <c r="K2" t="n">
-        <v>276.7528405944711</v>
+        <v>245.2190448415128</v>
       </c>
       <c r="L2" t="n">
-        <v>826.1821752007536</v>
+        <v>381.1637770428493</v>
       </c>
       <c r="M2" t="n">
         <v>1009.116320964472</v>
@@ -4355,25 +4355,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2633.671635888808</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2633.671635888808</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>2633.671635888808</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>2633.671635888808</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>2260.205877627728</v>
+        <v>1303.840301223142</v>
       </c>
       <c r="Y2" t="n">
-        <v>1870.066545651916</v>
+        <v>1164.16577872985</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>97.48881342044075</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4413,19 +4413,19 @@
         <v>380.2766518524141</v>
       </c>
       <c r="L3" t="n">
-        <v>811.9794026989974</v>
+        <v>882.1470455900082</v>
       </c>
       <c r="M3" t="n">
-        <v>1449.617702133886</v>
+        <v>1241.641187275395</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790179</v>
+        <v>1437.313937931689</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>1984.020177892692</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4434,25 +4434,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.0785963219411</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>295.1424133940342</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>295.1424133940342</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>295.1424133940342</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>221.3175785987204</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4519,19 +4519,19 @@
         <v>912.8607263634885</v>
       </c>
       <c r="U4" t="n">
-        <v>912.8607263634885</v>
+        <v>623.7080146291053</v>
       </c>
       <c r="V4" t="n">
-        <v>912.8607263634885</v>
+        <v>462.3389352678699</v>
       </c>
       <c r="W4" t="n">
-        <v>912.8607263634885</v>
+        <v>462.3389352678699</v>
       </c>
       <c r="X4" t="n">
-        <v>684.8711754654712</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.0785963219411</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2113.484044838089</v>
+        <v>816.5944448946054</v>
       </c>
       <c r="C5" t="n">
-        <v>1744.521527897677</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="D5" t="n">
-        <v>1386.255829290926</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.467576692682</v>
+        <v>192.386768611874</v>
       </c>
       <c r="F5" t="n">
-        <v>589.4816719030746</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
         <v>172.393890139502</v>
@@ -4571,19 +4571,19 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>917.9674053038835</v>
       </c>
       <c r="M5" t="n">
-        <v>1661.933351782553</v>
+        <v>1104.666818129291</v>
       </c>
       <c r="N5" t="n">
-        <v>2289.241019842399</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4595,22 +4595,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.830939477471</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.830939477471</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.830939477471</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2478.830939477471</v>
+        <v>816.5944448946054</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>295.3416275592179</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L6" t="n">
-        <v>799.7031674253365</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M6" t="n">
-        <v>1440.248516892441</v>
+        <v>922.8268672805889</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.3077645442295</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C7" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U7" t="n">
-        <v>986.202001930607</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V7" t="n">
-        <v>731.5175137247202</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="W7" t="n">
-        <v>442.1003436877596</v>
+        <v>425.300184933805</v>
       </c>
       <c r="X7" t="n">
-        <v>442.1003436877596</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="Y7" t="n">
-        <v>221.3077645442295</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1709.443640797685</v>
+        <v>937.4571327869071</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.481123857273</v>
+        <v>568.4946158464954</v>
       </c>
       <c r="D8" t="n">
-        <v>982.2154252505225</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="E8" t="n">
-        <v>596.4271726522782</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4412678626705</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4808,19 +4808,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4835,19 +4835,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V8" t="n">
-        <v>2435.678054328879</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W8" t="n">
-        <v>2082.909399058764</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X8" t="n">
-        <v>1709.443640797685</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1709.443640797685</v>
+        <v>1324.056972851029</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3601713965085</v>
+        <v>147.8604044788797</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>477.2888087846896</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>981.6503486508082</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1622.195698117913</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.6371024675198</v>
+        <v>109.6213639978776</v>
       </c>
       <c r="C10" t="n">
         <v>52.70091953961285</v>
@@ -4987,25 +4987,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="W10" t="n">
-        <v>852.067697339307</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="X10" t="n">
-        <v>624.0781464412896</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.2855672977595</v>
+        <v>109.6213639978776</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
@@ -5048,43 +5048,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239594</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397178</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297653</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297653</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>695.502065570305</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>172.3490191411141</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123345</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123345</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493493</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.8412329032296</v>
+        <v>580.8993044876643</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>411.9631215597574</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474216</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650285</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650285</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650285</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,22 +5890,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5999,40 +5999,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1996.142560886457</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1707.067334230655</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1452.382846024768</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1162.965675987807</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>934.9761250897898</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>714.1835459462596</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6303,16 +6303,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6789,16 +6789,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>296.9234711454493</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>129.7273718603292</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6898,10 +6898,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7731,22 +7731,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>94.21048053504113</v>
       </c>
       <c r="K2" t="n">
-        <v>126.0627994774233</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.9639383428422</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>184.7513690535338</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,22 +8219,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>304.2792595046351</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>30.21968338400228</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>176.8008973295434</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>312.5708431852138</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>394.3324990028804</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>102.3538970397737</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1.940673832634699e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,10 +10364,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,13 +11303,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372229334</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>90.39760398172464</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>43.72409101823504</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.3791545843378</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.49466557218921</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>45.71423459433174</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.8997516911017</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478791</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="8">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597547</v>
@@ -26326,34 +26326,34 @@
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707388</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707426</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.42449670735</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707417</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707348</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707363</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707381</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707369</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707392</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707362</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707372</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707371</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707371</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707389</v>
+        <v>6897.424496707388</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-428540.7776084907</v>
+        <v>-428540.7776084908</v>
       </c>
       <c r="C6" t="n">
         <v>354891.2343772259</v>
       </c>
       <c r="D6" t="n">
-        <v>359797.4813857258</v>
+        <v>359797.4813857254</v>
       </c>
       <c r="E6" t="n">
-        <v>-258169.6868374442</v>
+        <v>-258204.4247628796</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="J6" t="n">
-        <v>345157.6680388596</v>
+        <v>345122.9301134238</v>
       </c>
       <c r="K6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="L6" t="n">
-        <v>517518.6604391405</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="M6" t="n">
-        <v>389441.0636234263</v>
+        <v>389406.3256979911</v>
       </c>
       <c r="N6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137046</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036082</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>157.1027390760312</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>247.9601613876943</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.504804251687489</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>72.3344615755706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
@@ -27591,10 +27591,10 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.38225475620499</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.04041597049257</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>129.2376623233653</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>220.4913915804299</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>24.08320374741473</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.8402319645174</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>130.3780150448887</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.8955810849457</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,22 +28059,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>87.96077371353681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-4.901797486430345e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>268.6704608606973</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>204.377999281187</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>113.8208555767304</v>
       </c>
       <c r="K2" t="n">
-        <v>206.7046967308948</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>137.3179113144814</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178975</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
         <v>629.779267717812</v>
@@ -34781,10 +34781,10 @@
         <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>436.0633846935185</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>363.1253956418052</v>
       </c>
       <c r="N3" t="n">
         <v>197.6492430871648</v>
@@ -34796,7 +34796,7 @@
         <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>231.5645562859964</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>445.0152755059009</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>202.1075877445674</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>245.0916242622273</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>513.2342185919458</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35033,7 +35033,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>590.6296837422565</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>96.12069185784533</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,13 +35258,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>134.6960534463671</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066199</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>77.54037261452035</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37084,10 +37084,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -38023,13 +38023,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
